--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05DFEE1-0C3B-4F41-9AE2-23BD8FE23456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C500E88-7B89-924F-860A-5F61803D1110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>RMSE</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Histo-based gradient boosting w/ city</t>
+  </si>
+  <si>
+    <t>Gradient boosting w/ city optimal</t>
+  </si>
+  <si>
+    <t>Gradient boosting w/ city non-optimal</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416C2533-8C50-7B44-A7A8-5785CFD219DD}">
-  <dimension ref="B3:M11"/>
+  <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:M6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,11 +636,20 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>7.7501055527137305E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C500E88-7B89-924F-860A-5F61803D1110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF7F16A-7493-B147-A03A-02F9EAFAF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>
@@ -487,7 +487,7 @@
   <dimension ref="B3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,9 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>2710335.5680292002</v>
+      </c>
       <c r="D8" s="2">
         <v>0.24503146813842799</v>
       </c>
@@ -639,7 +641,9 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>2995998.4088369301</v>
+      </c>
       <c r="D11" s="2">
         <v>7.7501055527137305E-2</v>
       </c>

--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF7F16A-7493-B147-A03A-02F9EAFAF175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC9D9E-9078-DC40-AF67-0F4774B2E084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>

--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AC9D9E-9078-DC40-AF67-0F4774B2E084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E1AE4-F307-AC4F-8AA6-F359D5ED19F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>

--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E1AE4-F307-AC4F-8AA6-F359D5ED19F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5384071E-E447-8C4C-859B-C946CBA1EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>RMSE</t>
   </si>
@@ -56,15 +56,9 @@
     <t>3-degree Lasso w/ 10-fold CV</t>
   </si>
   <si>
-    <t>Histo-based gradient boosting w/ city non-optimal</t>
-  </si>
-  <si>
     <t>Histo-based gradient boosting w/ city optimal</t>
   </si>
   <si>
-    <t>Histo-based gradient boosting w/ area_code optimal</t>
-  </si>
-  <si>
     <t>Model comparison</t>
   </si>
   <si>
@@ -92,7 +86,22 @@
     <t>Gradient boosting w/ city optimal</t>
   </si>
   <si>
-    <t>Gradient boosting w/ city non-optimal</t>
+    <t>Minimum Samples leaf</t>
+  </si>
+  <si>
+    <t>Histo-based gradient boosting w/ zip code</t>
+  </si>
+  <si>
+    <t>Histo-based gradient boosting w/ zip-code optimal</t>
+  </si>
+  <si>
+    <t>Histo-based gradient boosting w/ city baseline</t>
+  </si>
+  <si>
+    <t>Gradient boosting w/ city baseline</t>
+  </si>
+  <si>
+    <t>Histo-based gradient boosting w/ zip-code baseline</t>
   </si>
 </sst>
 </file>
@@ -484,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416C2533-8C50-7B44-A7A8-5785CFD219DD}">
-  <dimension ref="B3:M12"/>
+  <dimension ref="B3:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,17 +512,17 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -523,20 +532,23 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -557,7 +569,7 @@
         <v>393597714.89321554</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -566,7 +578,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -586,13 +598,11 @@
         <f>SQRT(241549811143583000)</f>
         <v>491477172.55594182</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -602,10 +612,16 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>2710335.5680292002</v>
@@ -614,9 +630,9 @@
         <v>0.24503146813842799</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <f>SQRT(5035554560458.02)</f>
@@ -626,34 +642,41 @@
         <v>0.31904892694494902</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2634410.9634225401</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.28673687613573101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2">
+        <v>2634410.9634225401</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.28673687613573101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
         <v>2995998.4088369301</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <v>7.7501055527137305E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5384071E-E447-8C4C-859B-C946CBA1EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A436914-1B9B-C84A-A842-9D5C8431D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>

--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A436914-1B9B-C84A-A842-9D5C8431D14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC3B475-FB9D-B645-9223-385CF2DC7B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
+    <workbookView xWindow="16560" yWindow="740" windowWidth="12840" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>RMSE</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Gradient boosting w/ city optimal</t>
   </si>
   <si>
-    <t>Minimum Samples leaf</t>
-  </si>
-  <si>
-    <t>Histo-based gradient boosting w/ zip code</t>
-  </si>
-  <si>
     <t>Histo-based gradient boosting w/ zip-code optimal</t>
   </si>
   <si>
@@ -102,6 +96,24 @@
   </si>
   <si>
     <t>Histo-based gradient boosting w/ zip-code baseline</t>
+  </si>
+  <si>
+    <t>Extreme gradient boosting baseline</t>
+  </si>
+  <si>
+    <t>Extreme gradient boosting optimal</t>
+  </si>
+  <si>
+    <t>Minimum samples leaf/ Maximum leaf</t>
+  </si>
+  <si>
+    <t>Histo-based gradient boosting w/ zip</t>
+  </si>
+  <si>
+    <t>Extreme gradient boosting w/ city &amp; zip</t>
+  </si>
+  <si>
+    <t>Histo-based gradient boosting w/ categoricals</t>
   </si>
 </sst>
 </file>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416C2533-8C50-7B44-A7A8-5785CFD219DD}">
-  <dimension ref="B3:N13"/>
+  <dimension ref="B3:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,6 +522,7 @@
     <col min="11" max="11" width="32.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
@@ -545,7 +558,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -599,7 +612,7 @@
         <v>491477172.55594182</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -612,71 +625,74 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2710335.5680292002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.24503146813842799</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="K8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <f>SQRT(5035554560458.02)</f>
-        <v>2244004.1355706141</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.31904892694494902</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2634410.9634225401</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.28673687613573101</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
-        <v>2995998.4088369301</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7.7501055527137305E-2</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC3B475-FB9D-B645-9223-385CF2DC7B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95E6F7-9399-B041-BF22-1661D691F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16560" yWindow="740" windowWidth="12840" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>

--- a/EXAM/Model_comparison.xlsx
+++ b/EXAM/Model_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mingjiexing/Desktop/23 Summer/Copenhagen/SODAS2023_GithubDesktop/EXAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95E6F7-9399-B041-BF22-1661D691F7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA66196-1D6A-3147-90B7-36F2B386CCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="740" windowWidth="12840" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16540" xr2:uid="{2F864CB2-3578-2640-810C-E0985A81B903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>RMSE</t>
   </si>
@@ -44,9 +44,6 @@
     <t>R_2</t>
   </si>
   <si>
-    <t>Gradient boosting w/ city</t>
-  </si>
-  <si>
     <t>3-degree polynomial Linear</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Validation RMSE</t>
   </si>
   <si>
-    <t>Histo-based gradient boosting w/ city</t>
-  </si>
-  <si>
     <t>Gradient boosting w/ city optimal</t>
   </si>
   <si>
@@ -107,13 +101,31 @@
     <t>Minimum samples leaf/ Maximum leaf</t>
   </si>
   <si>
-    <t>Histo-based gradient boosting w/ zip</t>
-  </si>
-  <si>
-    <t>Extreme gradient boosting w/ city &amp; zip</t>
-  </si>
-  <si>
-    <t>Histo-based gradient boosting w/ categoricals</t>
+    <t>GB w/ city</t>
+  </si>
+  <si>
+    <t>Histo-based GB w/ city &amp; zip</t>
+  </si>
+  <si>
+    <t>Extreme GB w/ city &amp; zip</t>
+  </si>
+  <si>
+    <t>Histo-based GB w/ city</t>
+  </si>
+  <si>
+    <t>Histo-based GB w/ zip</t>
+  </si>
+  <si>
+    <t>2023M07</t>
+  </si>
+  <si>
+    <t>Detached/terraced house</t>
+  </si>
+  <si>
+    <t>Owner-occupied flat</t>
+  </si>
+  <si>
+    <t>Holiday home</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -190,6 +202,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -505,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416C2533-8C50-7B44-A7A8-5785CFD219DD}">
-  <dimension ref="B3:N15"/>
+  <dimension ref="B3:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,25 +530,25 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
         <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -545,154 +558,264 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.7393181736450001E+19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
-        <v>1.80518344859986E+19</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
       <c r="H5" s="2">
-        <v>1826.1584682702601</v>
+        <v>10000</v>
       </c>
       <c r="I5" s="2">
-        <f>SQRT(154919161169161000)</f>
-        <v>393597714.89321554</v>
+        <v>249834112.73300001</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.01</v>
+        <v>90</v>
+      </c>
+      <c r="N5">
+        <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7619160.6399999997</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
-        <v>2062560079.1400001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H6" s="5">
-        <v>780.38280634695298</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="5">
-        <f>SQRT(241549811143583000)</f>
-        <v>491477172.55594182</v>
+        <v>8438023.0079999994</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
       </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>2286536722.46</v>
+        <v>7619160.6399999997</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>70</v>
+      </c>
+      <c r="N7">
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2643662.5833223201</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.28171835288797198</v>
+      </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2458819.7831229102</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.378650263410585</v>
+      </c>
       <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3">
         <v>2</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="M9" s="3">
+        <v>70</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2329683.6630626</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.44220241511883401</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2806964.2853467301</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.19023967376748399</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2442247.15222887</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.386997924581227</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2697510.92383753</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.252159217192577</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3102302.2763095801</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.0875534211344001E-2</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3249872.7170622898</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-8.5464001577035806E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5">
+        <v>29553</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6394</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4647</v>
+      </c>
+      <c r="F20" s="6">
+        <f>SUM(C20:E20)</f>
+        <v>40594</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>C20/F20</f>
+        <v>0.72801399221559837</v>
+      </c>
+      <c r="D21">
+        <f>D20/F20</f>
+        <v>0.1575109622111642</v>
+      </c>
+      <c r="E21" s="6">
+        <f>E20/F20</f>
+        <v>0.11447504557323743</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
